--- a/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
+++ b/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中級実践課題SQL" sheetId="3" r:id="rId1"/>
     <sheet name="演習1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="演習2" sheetId="4" r:id="rId4"/>
+    <sheet name="演習2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1299,6 +1299,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,29 +1345,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2157,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2175,36 +2175,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="20">
         <v>44342</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2" t="s">
@@ -2257,7 +2257,7 @@
       <c r="G4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="4">
         <v>44342</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2286,7 +2286,7 @@
       <c r="G5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="4">
         <v>44342</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2315,7 +2315,7 @@
       <c r="G6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="4">
         <v>44342</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2344,7 +2344,7 @@
       <c r="G7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="4">
         <v>44342</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2373,7 +2373,7 @@
       <c r="G8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="4">
         <v>44342</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2402,7 +2402,7 @@
       <c r="G9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="4">
         <v>44342</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2431,7 +2431,7 @@
       <c r="G10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="4">
         <v>44342</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2460,7 +2460,7 @@
       <c r="G11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="4">
         <v>44342</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -2489,7 +2489,7 @@
       <c r="G12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="4">
         <v>44342</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2518,7 +2518,7 @@
       <c r="G13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="4">
         <v>44342</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -2547,7 +2547,7 @@
       <c r="G14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="4">
         <v>44342</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2576,7 +2576,7 @@
       <c r="G15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="4">
         <v>44342</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2605,7 +2605,7 @@
       <c r="G16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="4">
         <v>44342</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -2634,7 +2634,7 @@
       <c r="G17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="4">
         <v>44342</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2663,7 +2663,7 @@
       <c r="G18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="4">
         <v>44342</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2684,91 +2684,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>44342</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2788,36 +2706,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="20">
         <v>44342</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2847,7 +2765,7 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="L3" s="21" t="s">
@@ -2855,19 +2773,19 @@
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="52.8">
       <c r="A4" s="3" t="s">
@@ -2888,34 +2806,34 @@
       <c r="F4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="K4" s="14" t="s">
+      <c r="H4" s="4"/>
+      <c r="K4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:27" ht="39.6">
       <c r="A5" s="3" t="s">
@@ -2937,13 +2855,13 @@
         <v>142</v>
       </c>
       <c r="I5"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
@@ -2965,19 +2883,19 @@
         <v>144</v>
       </c>
       <c r="I6"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3001,19 +2919,19 @@
         <v>145</v>
       </c>
       <c r="I7"/>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3037,109 +2955,109 @@
         <v>146</v>
       </c>
       <c r="I8"/>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="I9"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:27">
       <c r="I10"/>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="15"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:27">
       <c r="I11"/>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="I12"/>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="I13"/>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="I14"/>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3166,4 +3084,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>44342</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
+++ b/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="中級実践課題SQL" sheetId="3" r:id="rId1"/>
-    <sheet name="演習1" sheetId="1" r:id="rId2"/>
-    <sheet name="演習2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="中級実践課題SQL2" sheetId="5" r:id="rId2"/>
+    <sheet name="演習1" sheetId="1" r:id="rId3"/>
+    <sheet name="演習2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="183">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -903,16 +904,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>数値を入力してください</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ホテルの最低価格以下を入力(異常系)</t>
     <rPh sb="4" eb="6">
       <t>サイテイ</t>
@@ -971,16 +962,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・TC1の期待される結果になっていること</t>
-    <rPh sb="5" eb="7">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1005,36 +986,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・TC2の期待される結果になっていること</t>
-    <rPh sb="5" eb="7">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・TC3の期待される結果になっていること</t>
-    <rPh sb="5" eb="7">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・TC4の期待される結果になっていること</t>
-    <rPh sb="5" eb="7">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>入力系画面
 異常系</t>
     <rPh sb="0" eb="3">
@@ -1101,6 +1052,455 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>負の値を入力(異常系)</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0以上100万未満で入力してください</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>100万以上を入力(異常系)</t>
+    <rPh sb="3" eb="4">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TC5を実施し、「検索」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TC6を実施し、「検索」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URLに直接「search-by-price」を打ち込んだ際に検索画面が表示されるか</t>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザのURL入力欄に「http://localhost:8080/ex02/seacrh-bt-price」と入力する
+・Enterボタンを押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・全件検索した結果が表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ゼンケンケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・値段検索フォームに「10000」円以下と入力する
+・「検索」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・値段検索フォームに「5000」円以下と入力する
+・「検索」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC1の期待される結果になっていること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC3の期待される結果になっていること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC4の期待される結果になっていること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC5の期待される結果になっていること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC6の期待される結果になっていること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・検索結果が3件表示されること
+・値段の降順になっていること</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・以下のホテル情報が表示されること
+「ホテルローズガーデン新宿」、「桜木町駅」、「5,000」</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シンジュク</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>サクラギチョウエキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・TC2の期待される結果になっていること
+・検索結果が5件表示されること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホテル情報が1件も存在しない場合に検索機能が動作するか</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS teams CASCADE;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・検索画面が表示されていること
+・中級実践課題SQL2が実行されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジッセンカダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「検索」ボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ホテル検索画面が表示されること
+・「該当するホテルは存在しません」と表示されること</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>田口</t>
+    <rPh sb="0" eb="2">
+      <t>タグチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1288,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1349,6 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1656,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2155,9 +2556,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2682,12 +3244,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2773,9 +3335,9 @@
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -2806,7 +3368,15 @@
       <c r="F4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K4" s="6" t="s">
         <v>118</v>
       </c>
@@ -2820,10 +3390,14 @@
         <v>121</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -2843,18 +3417,26 @@
         <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5"/>
+        <v>168</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>122</v>
       </c>
@@ -2862,27 +3444,37 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6"/>
+        <v>175</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K6" s="7" t="s">
         <v>124</v>
       </c>
@@ -2897,6 +3489,12 @@
       </c>
       <c r="O6" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="39.6">
@@ -2904,23 +3502,31 @@
         <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7"/>
+        <v>169</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>129</v>
@@ -2933,6 +3539,12 @@
       </c>
       <c r="O7" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="39.6">
@@ -2940,21 +3552,29 @@
         <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8"/>
+        <v>170</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>125</v>
       </c>
@@ -2968,104 +3588,336 @@
         <v>129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="I9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="I10"/>
-      <c r="K10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="39.6">
+      <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="39.6">
+      <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="66">
+      <c r="A11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="52.8">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="I11"/>
-      <c r="K11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="I12"/>
-      <c r="K12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="I13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="52.8">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>127</v>
       </c>
       <c r="M13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="I14"/>
+        <v>127</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="39.6">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>127</v>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="I15"/>
+      <c r="K15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:27">
       <c r="I16"/>
+      <c r="K16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17"/>
@@ -3078,7 +3930,7 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>

--- a/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
+++ b/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
@@ -11,14 +11,14 @@
     <sheet name="中級実践課題SQL2" sheetId="5" r:id="rId2"/>
     <sheet name="演習1" sheetId="1" r:id="rId3"/>
     <sheet name="演習2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="演習3" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="220">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -848,19 +848,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>数字以外を入力(異常系)</t>
-    <rPh sb="0" eb="4">
-      <t>スウジイガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>イジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -900,28 +887,6 @@
     <t>全件表示</t>
     <rPh sb="0" eb="4">
       <t>ゼンケンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ホテルの最低価格以下を入力(異常系)</t>
-    <rPh sb="4" eb="6">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1056,22 +1021,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>負の値を入力(異常系)</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>イジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0以上100万未満で入力してください</t>
     <rPh sb="1" eb="3">
       <t>イジョウ</t>
@@ -1084,22 +1033,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>100万以上を入力(異常系)</t>
-    <rPh sb="3" eb="4">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>イジョウケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1189,11 +1122,6 @@
     <rPh sb="36" eb="38">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ブラウザのURL入力欄に「http://localhost:8080/ex02/seacrh-bt-price」と入力する
-・Enterボタンを押す</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1501,6 +1429,486 @@
     <t>田口</t>
     <rPh sb="0" eb="2">
       <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>演習3　ブラックボックステスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>衣類を検索する</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザのURL入力欄に「http://localhost:8080/ex03/」と入力する
+・Enterボタンを押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衣類検索デシジョンテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Manを選択(正常系)</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Womanを選択(正常系)</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>赤を選択(正常系)</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>青を選択(正常系)</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>白を選択(正常系)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黄を選択(正常系)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC1の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC2の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC3の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC4の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC5の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC6の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TC7を実施し、「検索」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC7の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・TC8を実施し、「検索」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・TC8の期待される結果になっていること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URLに直接「search-by-color-and-gender」を打ち込んだ際に検索画面が表示されるか</t>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザのURL入力欄に「http://localhost:8080/ex02/seacrh-by-price」と入力する
+・Enterボタンを押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・「Man」、「赤」を入力して検索した結果が表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衣類を検索する</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衣類情報が1件も存在しない場合に検索機能が動作するか</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「Man」、「赤」を選択して「検索」ボタンを押す</t>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・「該当する衣類は存在しません」と表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザのURL入力欄に「http://localhost:8080/ex03/seacrh-by-color-and-gender」と入力する
+・Enterボタンを押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-1を入力(異常系)</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"abcdef"を入力(異常系)</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4999を入力(異常系)</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1000000を入力(異常系)</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イジョウケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1688,7 +2096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1722,6 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1749,7 +2158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2566,7 +2975,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2606,7 +3015,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2737,36 +3146,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="21">
         <v>44342</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2" t="s">
@@ -3248,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3268,36 +3677,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="21">
         <v>44342</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -3330,14 +3739,14 @@
       <c r="K3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -3369,13 +3778,13 @@
         <v>115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4">
         <v>44343</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>118</v>
@@ -3390,13 +3799,13 @@
         <v>121</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -3417,25 +3826,25 @@
         <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H5" s="4">
         <v>44343</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>122</v>
@@ -3452,49 +3861,49 @@
         <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H6" s="4">
         <v>44343</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>153</v>
+      <c r="P6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="39.6">
@@ -3502,49 +3911,49 @@
         <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H7" s="4">
         <v>44343</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="39.6">
@@ -3552,49 +3961,49 @@
         <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H8" s="4">
         <v>44343</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>153</v>
+        <v>134</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="39.6">
@@ -3602,49 +4011,49 @@
         <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H9" s="4">
         <v>44343</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>153</v>
+      <c r="K9" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="39.6">
@@ -3652,49 +4061,49 @@
         <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H10" s="4">
         <v>44343</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="K10" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="66">
@@ -3702,28 +4111,28 @@
         <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H11" s="4">
         <v>44343</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -3738,31 +4147,31 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H12" s="4">
         <v>44343</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -3776,49 +4185,49 @@
         <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H13" s="4">
         <v>44343</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="39.6">
@@ -3826,97 +4235,97 @@
         <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H14" s="4">
         <v>44343</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="I15"/>
       <c r="K15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="I16"/>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="N16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="9:9">
@@ -3940,47 +4349,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="33.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:19" ht="17.399999999999999">
+      <c r="A1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.399999999999999">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20">
-        <v>44342</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="H2" s="21">
+        <v>44343</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4008,12 +4427,493 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" ht="39.6">
+      <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="52.8">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="52.8">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="52.8">
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="52.8">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="52.8">
+      <c r="A9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="52.8">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="52.8">
+      <c r="A11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="52.8">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="66">
+      <c r="A13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="52.8">
+      <c r="A14" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L3:S3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
+++ b/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="中級実践課題SQL" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="238">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1745,38 +1745,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・衣類検索画面が表示されること
-・「Man」、「赤」を入力して検索した結果が表示されること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>衣類を検索する</t>
     <rPh sb="0" eb="2">
       <t>イルイ</t>
@@ -1910,6 +1878,246 @@
     <rPh sb="11" eb="14">
       <t>イジョウケイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>該当する衣類は存在しません</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・「Man」、「赤」を選択する
+・「検索」ボタンを押す</t>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の衣類情報が表示されること
+「ジャケット」、「S」、「10,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・「Man」、「青」を選択する
+・「検索」ボタンを押す</t>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・「Woman」、「黄」を選択する
+・「検索」ボタンを押す</t>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・「Woman」、「白」を選択する
+・「検索」ボタンを押す</t>
+    <rPh sb="11" eb="12">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・「該当する衣類は存在しません」と表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の衣類情報が表示されること
+「帽子」、「S」、「10,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常に選択肢の初期選択が行われているか</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショキセンタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「Man」、「赤」が選択されていること</t>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>田口</t>
+    <rPh sb="0" eb="2">
+      <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2131,6 +2339,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2158,7 +2367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2968,7 +3176,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B29"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3146,36 +3354,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <v>44342</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="2" t="s">
@@ -3657,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3677,36 +3885,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <v>44342</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -3739,14 +3947,14 @@
       <c r="K3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -3935,7 +4143,7 @@
         <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>128</v>
@@ -3985,7 +4193,7 @@
         <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>128</v>
@@ -4034,8 +4242,8 @@
       <c r="I9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>216</v>
+      <c r="K9" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>149</v>
@@ -4085,7 +4293,7 @@
         <v>153</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>149</v>
@@ -4349,10 +4557,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4363,41 +4571,43 @@
     <col min="4" max="4" width="20.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
     <col min="11" max="11" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.399999999999999">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="17.399999999999999">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <v>44343</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -4430,16 +4640,16 @@
       <c r="K3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" ht="39.6">
       <c r="A4" s="3" t="s">
@@ -4460,6 +4670,15 @@
       <c r="F4" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="K4" s="6" t="s">
         <v>118</v>
       </c>
@@ -4488,24 +4707,33 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="52.8">
+    <row r="5" spans="1:19" ht="39.6">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>235</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>122</v>
@@ -4533,10 +4761,19 @@
         <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>183</v>
@@ -4580,10 +4817,19 @@
         <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>184</v>
@@ -4627,10 +4873,19 @@
         <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>185</v>
@@ -4674,10 +4929,19 @@
         <v>139</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>186</v>
@@ -4721,10 +4985,19 @@
         <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>187</v>
@@ -4768,10 +5041,19 @@
         <v>139</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>188</v>
@@ -4815,10 +5097,19 @@
         <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -4830,24 +5121,33 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" ht="66">
+    <row r="13" spans="1:19" ht="52.8">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>129</v>
@@ -4861,24 +5161,33 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" ht="52.8">
+    <row r="14" spans="1:19" ht="66">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>130</v>
@@ -4887,7 +5196,7 @@
         <v>108</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>108</v>
@@ -4896,7 +5205,7 @@
         <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>108</v>
@@ -4905,7 +5214,179 @@
         <v>108</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="52.8">
+      <c r="A15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>108</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="52.8">
+      <c r="A16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="52.8">
+      <c r="A17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="52.8">
+      <c r="A18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="52.8">
+      <c r="A19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44343</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4917,5 +5398,6 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
+++ b/ブラックボックステスト仕様書/ブラックボックステスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="中級実践課題SQL" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="236">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>size text</t>
-  </si>
-  <si>
-    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');</t>
   </si>
   <si>
     <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','パンツ　　',0,'白',20000,'M');</t>
@@ -1587,49 +1584,7 @@
   </si>
   <si>
     <t>・衣類検索画面が表示されること
-・TC1の期待される結果になっていること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・衣類検索画面が表示されること
 ・TC2の期待される結果になっていること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・衣類検索画面が表示されること
-・TC3の期待される結果になっていること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・衣類検索画面が表示されること
-・TC4の期待される結果になっていること</t>
     <rPh sb="1" eb="3">
       <t>イルイ</t>
     </rPh>
@@ -1656,40 +1611,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・衣類検索画面が表示されること
-・TC6の期待される結果になっていること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・TC7を実施し、「検索」をクリック</t>
     <rPh sb="5" eb="7">
       <t>ジッシ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・衣類検索画面が表示されること
-・TC7の期待される結果になっていること</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1914,109 +1841,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">
-・「Man」、「赤」を選択する
-・「検索」ボタンを押す</t>
-    <rPh sb="9" eb="10">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・衣類検索画面が表示されること
-・以下の衣類情報が表示されること
-「ジャケット」、「S」、「10,000」</t>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-・「Man」、「青」を選択する
-・「検索」ボタンを押す</t>
-    <rPh sb="9" eb="10">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-・「Woman」、「黄」を選択する
-・「検索」ボタンを押す</t>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>〇</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-・「Woman」、「白」を選択する
-・「検索」ボタンを押す</t>
-    <rPh sb="11" eb="12">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2118,6 +1943,171 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+・Googleデベロッパーツールで「Man」のValueの値を"0"から"a"に書き換える
+・「検索」ボタンを押す</t>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の検索結果が表示されること
+「ジャケット」、「S」、「10,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の検索結果が表示されること
+「パンツ」、「M」、「20,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の検索結果が表示されること
+「ジャケット」、「L」、「15,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・以下の検索結果が表示されること
+「Tシャツ」、「M」、「5,000」</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・検索画面が表示されていること
+・中級実践課題SQLが実行されていること
+・以下のSQLが実行されていること
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10001,'S');</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジッセンカダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・衣類検索画面が表示されること
+・検索結果が2件表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2674,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3142,27 +3132,27 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3173,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3223,7 +3213,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3425,22 +3415,22 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4">
         <v>44342</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.8">
@@ -3454,22 +3444,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="4">
         <v>44342</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="52.8">
@@ -3483,22 +3473,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="4">
         <v>44342</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="52.8">
@@ -3512,22 +3502,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="4">
         <v>44342</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="52.8">
@@ -3541,22 +3531,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" s="4">
         <v>44342</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.8">
@@ -3570,22 +3560,22 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="4">
         <v>44342</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.8">
@@ -3599,22 +3589,22 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="4">
         <v>44342</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52.8">
@@ -3628,22 +3618,22 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="4">
         <v>44342</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="52.8">
@@ -3657,196 +3647,196 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H12" s="4">
         <v>44342</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.8">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="4">
         <v>44342</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52.8">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="4">
         <v>44342</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.8">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4">
         <v>44342</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.8">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="4">
         <v>44342</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="52.8">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="4">
         <v>44342</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="52.8">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="4">
         <v>44342</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3865,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3945,10 +3935,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -3968,52 +3958,52 @@
     </row>
     <row r="4" spans="1:27" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="4">
         <v>44343</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -4028,34 +4018,34 @@
     </row>
     <row r="5" spans="1:27" ht="39.6">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="4">
         <v>44343</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -4066,281 +4056,281 @@
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="4">
         <v>44343</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="P6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="39.6">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="4">
         <v>44343</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="39.6">
       <c r="A8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="4">
         <v>44343</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="39.6">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="4">
         <v>44343</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="39.6">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="4">
         <v>44343</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="66">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="4">
         <v>44343</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -4352,34 +4342,34 @@
     </row>
     <row r="12" spans="1:27" ht="52.8">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="4">
         <v>44343</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -4390,150 +4380,150 @@
     </row>
     <row r="13" spans="1:27" ht="52.8">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="4">
         <v>44343</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="39.6">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="4">
         <v>44343</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="I15"/>
       <c r="K15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="I16"/>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="N16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="9:9">
@@ -4557,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4579,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4638,10 +4628,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
@@ -4653,90 +4643,90 @@
     </row>
     <row r="4" spans="1:19" ht="39.6">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H4" s="4">
         <v>44343</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="R4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="39.6">
       <c r="A5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H5" s="4">
         <v>44343</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -4749,367 +4739,367 @@
     </row>
     <row r="6" spans="1:19" ht="52.8">
       <c r="A6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H6" s="4">
         <v>44343</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="52.8">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H7" s="4">
         <v>44343</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="52.8">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H8" s="4">
         <v>44343</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="52.8">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H9" s="4">
         <v>44343</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="R9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="52.8">
       <c r="A10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H10" s="4">
         <v>44343</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="52.8">
       <c r="A11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H11" s="4">
         <v>44343</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="52.8">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H12" s="4">
         <v>44343</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -5123,34 +5113,34 @@
     </row>
     <row r="13" spans="1:19" ht="52.8">
       <c r="A13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H13" s="4">
         <v>44343</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -5163,230 +5153,172 @@
     </row>
     <row r="14" spans="1:19" ht="66">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H14" s="4">
         <v>44343</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="52.8">
       <c r="A15" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H15" s="4">
         <v>44343</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="52.8">
       <c r="A16" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="H16" s="4">
         <v>44343</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="52.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="158.4">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="H17" s="4">
         <v>44343</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="52.8">
-      <c r="A18" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H18" s="4">
-        <v>44343</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="52.8">
-      <c r="A19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" s="4">
-        <v>44343</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
